--- a/planification/Planification_Projet_fin_annee_CIR2.xlsx
+++ b/planification/Planification_Projet_fin_annee_CIR2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863EFA1D-D24E-4FD8-86C3-4FED4C058B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710256D-771A-455A-8C41-77AD52D9E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -285,7 +285,10 @@
     <t>Mathis/Mathieu</t>
   </si>
   <si>
-    <t>Mathis/Mathieu/Alexis</t>
+    <t>Mathis/Alexis</t>
+  </si>
+  <si>
+    <t>Mathis/Mathis/Alexis</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1308,35 +1311,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1395,7 +1395,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1406,13 +1406,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1429,6 +1422,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -1436,13 +1436,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1552,15 +1545,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1707,10 +1700,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1982,8 +1971,8 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2034,14 +2023,14 @@
       <c r="B3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="85">
+      <c r="D3" s="88"/>
+      <c r="E3" s="83">
         <v>45810</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
@@ -2050,33 +2039,33 @@
       <c r="B4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="84">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="82">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="84">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -2271,9 +2260,9 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
@@ -2312,9 +2301,9 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
@@ -2353,9 +2342,9 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
@@ -2392,9 +2381,9 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
@@ -2423,9 +2412,9 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
@@ -2439,10 +2428,10 @@
         <v>51</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="67">
         <f>E3+1</f>
@@ -2462,9 +2451,9 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
@@ -2478,18 +2467,18 @@
         <v>52</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="67">
-        <f>E3+2</f>
-        <v>45812</v>
+        <f>E3+1</f>
+        <v>45811</v>
       </c>
       <c r="F14" s="67">
         <f>E14+2</f>
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
@@ -2501,9 +2490,9 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
@@ -2517,32 +2506,32 @@
         <v>53</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="67">
-        <f>F14</f>
-        <v>45814</v>
+        <f>Début_Projet+2</f>
+        <v>45812</v>
       </c>
       <c r="F15" s="67">
-        <f>E15+1</f>
-        <v>45815</v>
+        <f>E15</f>
+        <v>45812</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -2556,32 +2545,32 @@
         <v>54</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="67">
         <f>E3+1</f>
         <v>45811</v>
       </c>
       <c r="F16" s="67">
-        <f>E16+2</f>
-        <v>45813</v>
+        <f>E16</f>
+        <v>45811</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
@@ -2595,18 +2584,18 @@
         <v>55</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="67">
-        <f>E3+3</f>
+        <f>E3+1</f>
+        <v>45811</v>
+      </c>
+      <c r="F17" s="67">
+        <f>E17+2</f>
         <v>45813</v>
-      </c>
-      <c r="F17" s="67">
-        <f>E17+1</f>
-        <v>45814</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2615,9 +2604,9 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
@@ -2627,22 +2616,22 @@
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="81" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="86">
+        <v>1</v>
+      </c>
+      <c r="E18" s="80">
         <f>Début_Projet+1</f>
         <v>45811</v>
       </c>
-      <c r="F18" s="86">
-        <f>E18+1</f>
-        <v>45812</v>
+      <c r="F18" s="80">
+        <f>E18</f>
+        <v>45811</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2651,9 +2640,9 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
       <c r="S18" s="28"/>
@@ -2670,15 +2659,15 @@
         <v>39</v>
       </c>
       <c r="D19" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="67">
         <f>Début_Projet+2</f>
         <v>45812</v>
       </c>
       <c r="F19" s="67">
-        <f>E19+1</f>
-        <v>45813</v>
+        <f>E19</f>
+        <v>45812</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -2687,9 +2676,9 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
@@ -2706,15 +2695,15 @@
         <v>39</v>
       </c>
       <c r="D20" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="67">
-        <f>Début_Projet+3</f>
-        <v>45813</v>
+        <f>Début_Projet+2</f>
+        <v>45812</v>
       </c>
       <c r="F20" s="67">
         <f>E20+1</f>
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -2723,9 +2712,9 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
       <c r="S20" s="28"/>
@@ -2754,9 +2743,9 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
@@ -2773,29 +2762,29 @@
         <v>50</v>
       </c>
       <c r="D22" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="70">
-        <f>Début_Projet+8</f>
-        <v>45818</v>
+        <f>Début_Projet+4</f>
+        <v>45814</v>
       </c>
       <c r="F22" s="70">
-        <f>E22+1</f>
-        <v>45819</v>
+        <f>E22</f>
+        <v>45814</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
       <c r="S22" s="28"/>
@@ -2809,32 +2798,32 @@
         <v>60</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D23" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="70">
-        <f>Début_Projet+8</f>
-        <v>45818</v>
+        <f>Début_Projet+4</f>
+        <v>45814</v>
       </c>
       <c r="F23" s="70">
-        <f>E23+1</f>
-        <v>45819</v>
+        <f>E23</f>
+        <v>45814</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
@@ -2848,32 +2837,32 @@
         <v>63</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D24" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="70">
-        <f>Début_Projet+8</f>
-        <v>45818</v>
+        <f>Début_Projet+3</f>
+        <v>45813</v>
       </c>
       <c r="F24" s="70">
-        <f>E24+1</f>
-        <v>45819</v>
+        <f>E24</f>
+        <v>45813</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -2887,32 +2876,32 @@
         <v>62</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="70">
-        <f>Début_Projet+8</f>
-        <v>45818</v>
+        <f>Début_Projet+4</f>
+        <v>45814</v>
       </c>
       <c r="F25" s="70">
-        <f>E25+1</f>
-        <v>45819</v>
+        <f>E25</f>
+        <v>45814</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -2929,7 +2918,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="70">
         <f>Début_Projet+8</f>
@@ -2949,9 +2938,9 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
@@ -2978,9 +2967,9 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
@@ -3052,27 +3041,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:U28">
-    <cfRule type="expression" dxfId="5" priority="33">
+    <cfRule type="expression" dxfId="4" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:U28">
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I7:V28">
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V5:V28">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V28">
-    <cfRule type="expression" dxfId="1" priority="38">
-      <formula>AND(début_tâche&lt;=V$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=V$5)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=V$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
@@ -3099,7 +3087,7 @@
     <brk id="2" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F16" formula="1"/>
+    <ignoredError sqref="E24" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3130,7 +3118,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3231,6 +3219,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c19bd27d-5e12-4628-97f1-2dd56e8a63b1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4AB6F8B8ACA934687162BC24BD10A52" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="eae79989981e2be1c850cf79132de20a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c19bd27d-5e12-4628-97f1-2dd56e8a63b1" xmlns:ns4="7304d41b-7c4d-42aa-9aac-f5d7ce61e714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f4ce6324aef2cfbb3fabc2d65349fd1" ns3:_="" ns4:_="">
     <xsd:import namespace="c19bd27d-5e12-4628-97f1-2dd56e8a63b1"/>
@@ -3425,38 +3430,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c19bd27d-5e12-4628-97f1-2dd56e8a63b1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3241B94A-209A-49E2-BF55-FBD191F2285D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c19bd27d-5e12-4628-97f1-2dd56e8a63b1"/>
-    <ds:schemaRef ds:uri="7304d41b-7c4d-42aa-9aac-f5d7ce61e714"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3479,9 +3456,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3241B94A-209A-49E2-BF55-FBD191F2285D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c19bd27d-5e12-4628-97f1-2dd56e8a63b1"/>
+    <ds:schemaRef ds:uri="7304d41b-7c4d-42aa-9aac-f5d7ce61e714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>